--- a/personal path/Schütze1.xlsx
+++ b/personal path/Schütze1.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A2:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
       </c>
       <c r="K6">
         <f>SUM(J6:J12)</f>
-        <v>16.95</v>
+        <v>21.116666666666667</v>
       </c>
       <c r="R6" s="1">
         <v>45106</v>
@@ -726,24 +726,24 @@
         <v>115</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="J9">
         <f>I9/60</f>
-        <v>3.1666666666666665</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="R9" s="1">
         <v>45109</v>
